--- a/biology/Médecine/Alliance_contre_le_tabac/Alliance_contre_le_tabac.xlsx
+++ b/biology/Médecine/Alliance_contre_le_tabac/Alliance_contre_le_tabac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alliance contre le tabac, association loi de 1901, est la fédération des acteurs de la lutte contre le tabac créée en 1991 à la suite de la promulgation de la loi Évin.
 L'Alliance rassemble en son sein une vingtaine de membres et personnalités menant une politique engagée dans la lutte contre le tabagisme.
@@ -512,7 +524,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’Alliance contre le tabac participe à la mise en œuvre de la Convention-cadre de l'OMS pour la lutte antitabac (CCLAT), signée et ratifiée par la France en 2004.
 L’Alliance anime et coordonne une action associative commune de lobbying anti-tabac sur l'ensemble du territoire français.
@@ -544,7 +558,9 @@
           <t>Composition du Bureau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Président : Pr Loïc Josseran (depuis 2017)
 Vice-président : Christiane Pochulu (Association Santé respiratoire France)
